--- a/data/hotels_by_city/Houston/Houston_shard_97.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_97.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107768-Reviews-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Inn-Suites-FM1960-Champions.h102480.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,834 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r597386912-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107768</t>
+  </si>
+  <si>
+    <t>597386912</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Fine Experience Except for Making Reservation</t>
+  </si>
+  <si>
+    <t>The room and hotel were fine. The construction around it made it a little hard to access but we worked around that. Our only issue was that we did get a confirmation email for our stay and when I called about it, they had entered our email incorrectly. When that was fixed, I saw they had booked us on the wrong night, so I called to correct it. Several hours went by and my confirmation didn't update, so I had to call again and ask that it be changed to the correct date. Everything worked out fine in the end and we enjoyed the later checkout time, but it was frustrating that we had to follow up so many times to make sure our reservation was correct.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The room and hotel were fine. The construction around it made it a little hard to access but we worked around that. Our only issue was that we did get a confirmation email for our stay and when I called about it, they had entered our email incorrectly. When that was fixed, I saw they had booked us on the wrong night, so I called to correct it. Several hours went by and my confirmation didn't update, so I had to call again and ask that it be changed to the correct date. Everything worked out fine in the end and we enjoyed the later checkout time, but it was frustrating that we had to follow up so many times to make sure our reservation was correct.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r588471189-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588471189</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Convenient and affordable stay</t>
+  </si>
+  <si>
+    <t>Convenient stay hear family in north Houston. Good clean rooms at a good rate. Breakfast was OK, but not great. Access to hotel was made difficult due to road construction. Second time staying at this hotel, and both have been good.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r585190729-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585190729</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Smelly Hotel</t>
+  </si>
+  <si>
+    <t>The hotel looks nice but the rooms smell really bad. My sister had to switch rooms because the smell was so bad.  My room smelled like a locker room.  We were told the entire first floor flooded during Harvey but it doesn't seem like they renovated to remove the soiled areas.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r578002707-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578002707</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considering my stay with 21 teenagers as their teacher, I felt perfectly comfortable.. It would have been much better if it was possible to open a window for some fresh air. Breakfast was OK. We enjoyed the pool area. Staff was really friendly and helpful on every issue. </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r575651174-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575651174</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Outstanding customer service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We want to thank Yolanda for being an absolute superstar for making our trip to Houston unforgettable. When you stay in hotels, you don’t expect to make a connection with the hotel staff but Yolanda was an exception. You made us feel at home and we cannot thank you enough for making us feel so special on our honeymoon. Expect a surprise from South Africa very soon! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r568911815-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568911815</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Nice Weeks Stay</t>
+  </si>
+  <si>
+    <t>Nice room, breakfasts and pool area. Whirlpool/Hot Tub jet need repair and if water is supposed be warm for the hot tub; it needs repair as well...but overall very nice accommodations! I'd likely stay here again.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r546166776-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546166776</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Nice place, but a little too close to the rr tracks</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for three nights on a recent trip to Texas. The property is first rate in every way imaginable, comparing quite nicely to Hampton Inns I have stayed in in the past. The building is only three or four years old and is well maintained. Nice open lobby and a well stocked breakfast spread, which changed daily.  Our room was comfortable, and we did not mind spending time in the room. In some facilities you need to 'get out' and away from your hotel, but this was not the case.  The one negative was the train coming through around 4am each morning. If woke me up every time, blowing for the track crossing just hundreds of yards from the hotel.  If you can sleep through a train blowing for a rr crossing, you will be fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for three nights on a recent trip to Texas. The property is first rate in every way imaginable, comparing quite nicely to Hampton Inns I have stayed in in the past. The building is only three or four years old and is well maintained. Nice open lobby and a well stocked breakfast spread, which changed daily.  Our room was comfortable, and we did not mind spending time in the room. In some facilities you need to 'get out' and away from your hotel, but this was not the case.  The one negative was the train coming through around 4am each morning. If woke me up every time, blowing for the track crossing just hundreds of yards from the hotel.  If you can sleep through a train blowing for a rr crossing, you will be fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r541429767-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541429767</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent value for money </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location was just perfect for me, I needed a quiet place to stay as I had gone to sit for my licensure exam at a nearby exam center. WiFi strong, breakfast... loved the bacon, rooms clean, staff friendly, away from noice, near the Cypress pkwy so you can easily catch a bus to the shopping centers nearby or Willowbrook Mall if you need to do shopping, Walmart just across the street and restaurants. Enjoyed my stay, thank you! </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r538000583-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538000583</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good staff, poor comfort </t>
+  </si>
+  <si>
+    <t>I booked this room thinking it was the same hotel I stayed in last time but it was not. The road leading up to the hotel had huge pot holes in the ground. The hotel parking space was small and crammed. The staff however, was really friendly. She explained everything clearly and thoroughly. When we got to the room and opened the door, a big gust of humid, hot hair hit us! It took a few hours for that humidity to go away. Our fridge was not even cold or barely working. Our bathtub was clogged. We called to get it fixed and I appreciated that the response was quick. I also liked how breakfast was served daily, just wish they had more variety and more food, because if you get there late, it won’t be as fresh. Most likely won’t come back. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I booked this room thinking it was the same hotel I stayed in last time but it was not. The road leading up to the hotel had huge pot holes in the ground. The hotel parking space was small and crammed. The staff however, was really friendly. She explained everything clearly and thoroughly. When we got to the room and opened the door, a big gust of humid, hot hair hit us! It took a few hours for that humidity to go away. Our fridge was not even cold or barely working. Our bathtub was clogged. We called to get it fixed and I appreciated that the response was quick. I also liked how breakfast was served daily, just wish they had more variety and more food, because if you get there late, it won’t be as fresh. Most likely won’t come back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r523889807-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>523889807</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Good, dependable hotel in NW Houston</t>
+  </si>
+  <si>
+    <t>Hotel was very good (as expected from Comfort Inn).  Desk lady was very pleasant, helpful, and knowledgeable.  Grounds and room were clean.  The business center computer, however, could use Microsoft Office so patrons can pull up spreadsheets,Word docs, pdfs, etc.  I also experienced one guest who tried to print and was not able to do so.  Breakfast was so-so (continental) but had the basics.  AC in the room "clunked" when the compressor engaged and disengaged.  I'd rather have consistent "white" noise throughout the night.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r522334387-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522334387</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Decent stay</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights on a layover.  Staff was nice and the lobby and dining area looked clean.  I booked this through Priceline express so it was a good deal for the price I paid. The room, you can tell was recently cleaned because there was still a strong bleach smell.  it was actually too strong that I had to turn on the fan to try to circulate the air.  Otherwise, the room was clean and as expected.  Had the king bed room and it was fairly big.  The bed was good.  Didn't use any other hotel amenities.The breakfast was ok.  Nothing fascinating but had all the usuals.  Hot food, waffle maker, cold food, pastries, juice, coffee, tea, etc. The dining area was on the smaller size but luckily when I went it wasn't full.  Not sure about the breakfast times though. I feel like other places start earlier.  My flight out was too early (by half hour) so I didn't get any on the last day.  Near-by, there's a gas station, Walmart and a little plaza with shops and some food places - all within walking distanceMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights on a layover.  Staff was nice and the lobby and dining area looked clean.  I booked this through Priceline express so it was a good deal for the price I paid. The room, you can tell was recently cleaned because there was still a strong bleach smell.  it was actually too strong that I had to turn on the fan to try to circulate the air.  Otherwise, the room was clean and as expected.  Had the king bed room and it was fairly big.  The bed was good.  Didn't use any other hotel amenities.The breakfast was ok.  Nothing fascinating but had all the usuals.  Hot food, waffle maker, cold food, pastries, juice, coffee, tea, etc. The dining area was on the smaller size but luckily when I went it wasn't full.  Not sure about the breakfast times though. I feel like other places start earlier.  My flight out was too early (by half hour) so I didn't get any on the last day.  Near-by, there's a gas station, Walmart and a little plaza with shops and some food places - all within walking distanceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r518078381-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>518078381</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston Comfort Inn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was great for the price.  Very clean and an excellent breakfast. The staff was very helpful as well. The location is set away from the road so it is quiet. I will stay here every time we take this trip. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r496888466-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496888466</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>I enjoyed walking through the hallway and noticing a very pleasant smell.  The smell of freshness.  I enjoyed my stay.</t>
+  </si>
+  <si>
+    <t>I stayed three nights and they were great.  I had free breakfast every morning.  The pool was being cleaned even though no one had swim in the pool.  Everyone was so friendly.  I would recommend anyone to stay.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r486183253-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486183253</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Comfy and clean for the value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was clean and bed was comfy. Free breakfast and Wi-Fi and good parking. Decent location, near restaurants and stores.  Housekeeping forgot to give us new coffee in the room 4 out of the 8 days we stayed. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r485161256-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485161256</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Won't Cancel</t>
+  </si>
+  <si>
+    <t>I booked Hotel thru the Choice Rewards app at a prepaid rate. So I have already paid for the hotel. I was supposed to be staying The first weekend in June.  A week after I booked the Hotel, I got hired on with a company to where I will be relocated to Detroit. Now due to the relocation for my new job I am not able to stay there on the reserved dates. I have tried to cancel the room but I get the run around from both the Company and Hotel management stating they are not able to cancel the reservation at all due to it being a prepaid reservation.  So now Choice Hotels has gotten my money and I'm not going to be able to use it. Worst part is they will probably give the room to someone else and make double the money on it.  Kinda of shady if you ask me. MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked Hotel thru the Choice Rewards app at a prepaid rate. So I have already paid for the hotel. I was supposed to be staying The first weekend in June.  A week after I booked the Hotel, I got hired on with a company to where I will be relocated to Detroit. Now due to the relocation for my new job I am not able to stay there on the reserved dates. I have tried to cancel the room but I get the run around from both the Company and Hotel management stating they are not able to cancel the reservation at all due to it being a prepaid reservation.  So now Choice Hotels has gotten my money and I'm not going to be able to use it. Worst part is they will probably give the room to someone else and make double the money on it.  Kinda of shady if you ask me. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r470376404-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470376404</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfort inn experience </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had such a great experience with my family. The hotel was comfortable, the service was great and the receptionist we found was so welcoming.We need more like her. The view of the pool was also so beautiful. If you are in Houston I would definitely recommend checking it out. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r465442723-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465442723</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Great place to stay, enjoyed the location of my clean room. Front desk was very pleasant and was very detailed. We really enjoyed the breakfast as well... Thank you and we plan to stay on next visit to Houston</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r465351725-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465351725</t>
+  </si>
+  <si>
+    <t>Very friendly staff and very clean.</t>
+  </si>
+  <si>
+    <t>This was the first time I stayed here and I thought the hotel was clean and the staff was very helpful and friendly. Everything is close to this hotel, within walking distance. Very centrally located.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r456045301-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456045301</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>Totally Awesome</t>
+  </si>
+  <si>
+    <t>Very clean, spacious, and comfortable room. Front desk staff were friendly and extremely helpful. Parking was readily available, although the hotel was back off the main road and somewhat challenging to find. This worked to their advantage by cutting down on traffic noises.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r439050343-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439050343</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>great time</t>
+  </si>
+  <si>
+    <t>Had good experience. Kids were screaming at night, but other than that was good. Really comfortable ... They just need to put a dvd player or put more movies to watch they did not had a lot of channels but other than that was great!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r438315329-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438315329</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>Great Stay!!</t>
+  </si>
+  <si>
+    <t>This is a great hotel. The staff is very accommodating and friendly. Breakfast was very good with multiple options. The pool looks beautiful, although we didn't use it.  There are a TON of restaurants nearby and it's not too far from the freeways. Will stay again :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r417070963-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417070963</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Relaxing break</t>
+  </si>
+  <si>
+    <t>We are visiting Houston from the UK and found this great hotel. It is set back from the main road so nice and quiet. Staff very friendly and helpful. Room was very clean and tidy. Really enjoyed our stay</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r394922389-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394922389</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Upon arrival I was greeted by a very freindly and helpful desk clerk. The hotel is very clean, the price is great, nice rooms that are up to date with flat screens, microwave, fridge, ect. Great, clean place to stay and a very good bargin. Would recomend it to anyone.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r369250720-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369250720</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Good value for money</t>
+  </si>
+  <si>
+    <t>Since I traveled in North Houston for an event and all the other hotels +7 were at least 70% more expensive, the value for money is really good. The room has a large and comfortable bed, but there is a bed smell from moisture. The wifi internet is not working very well. I would appreciate more choices at breakfast. Overall OK!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r358866277-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358866277</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outside appearance was nice, first impression of the inside was good. Staff was friendly. Our room was clean and fresh, bathroom was spic and span, bed/mattress was very comfortable and breakfast was delicious. I would stay again and again.  </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r332757118-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332757118</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Wow!!  Would stay again, would recommend others to stay there!!</t>
+  </si>
+  <si>
+    <t>This place is fantastic!  It's a wonderful building that smells and looks clean and new with a super cute grotto-style pool in the back.  The rooms are very big and clean and comfortable and the staff is amongst the best and most polite/attentive that I have ever seen in my life.  I would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r331609347-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331609347</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Great for Business Travel</t>
+  </si>
+  <si>
+    <t>The Comfort Inn is a great place to stay if working or visiting the Cypress Creek / 1960 / 2920 area. I've been staying there on and off for a couple of months and the staff is exceptional. Great offering of fresh food in the morning including continental style breakfast with eggs, bacon, breakfast sausage, waffles, etc. Has easy to use washing machine and dryer on site if needed, free parking and Wi-Fi.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r318480036-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318480036</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>A Bit Pricey but Nice Enough</t>
+  </si>
+  <si>
+    <t>Stayed there 2 nights before and after my wedding down the street at Houston's Ballrooms. Staff was especially helpful.  Printer at business center did not work for boarding passes for honeymoon flight, and staff could not fix it.  Otherwise everything went smoothly.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r317292965-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317292965</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>Buyer Beware</t>
+  </si>
+  <si>
+    <t>Worst experience ever. Hotel smelled, staff was rude and were caught in multiple lies which we caught on video. We had to cal 911 when staff refused to refund 2nd room. Hotel charged us for not even staying in that establishment. There are plenty of other hotels to stay at including Comfort Inn's that are just minutes from this particularly horrible hotel. This is not a Military friendly place to stay. Still waiting for compensation.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r296104266-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296104266</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Great Visit and Customer Service</t>
+  </si>
+  <si>
+    <t>I stayed for one night in early August 2015 for a work trip.  Esmerelda checked us in a accommodated our request for a different room as well as had all the paperwork in order.  She made the tax free form process easy.  Our room was comfortable, clean and modern.  The beds were soft and comfortable.  There was ample hot water in the shower and plenty of supplies.  There was a small pool in the back, that was nicely landscaped.  I did not eat the breakfast, but it looked good and had many fresh options available.  Also, at checkout, I needed help with printing a document and getting a copy.  The front desk staff was very patient and helpful.  I will stay here again when I come back to North Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I stayed for one night in early August 2015 for a work trip.  Esmerelda checked us in a accommodated our request for a different room as well as had all the paperwork in order.  She made the tax free form process easy.  Our room was comfortable, clean and modern.  The beds were soft and comfortable.  There was ample hot water in the shower and plenty of supplies.  There was a small pool in the back, that was nicely landscaped.  I did not eat the breakfast, but it looked good and had many fresh options available.  Also, at checkout, I needed help with printing a document and getting a copy.  The front desk staff was very patient and helpful.  I will stay here again when I come back to North Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r273201310-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273201310</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Super weird at first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We checked in early. Tv was blaring. Turned off tv. Staff were having extremely loud 'relations' in the suite next door. Then later a man barged into our room without knocking. Used his staff keys. Said sorry and left. Rest of visit was ok but used the extra security on the door for the rest of our stay. Hotel was clean. Breakfast was better than most places. </t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r270168380-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270168380</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Great Breakfast &amp; Great Location</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this Hotel.  The staff was very friendly, very attentive to my needs as a customer and they communicated all the details of my stay. I would recommend this hotel to others.  The location was great as well.  It was near everything.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r268085473-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268085473</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>A Superb Comfort Inn &amp; Suites</t>
+  </si>
+  <si>
+    <t>Stayed here for the Thanksgiving weekend and we were really impressed with this NW Houston property.  It's located off of US 290 a couple of miles north.  If your coming from US 290 towards this property it's located on your right.  We were actively looking for this property and still missed it the first time as there's really no signage on US 290 letting you know the property is there.  This hotel is located behind a Goodwill store.  Adding some signage on US 290 would be my only improvement suggested for this property.  
+This hotel is really clean and updated.  There's limited parking out front of the property with a bigger lot in the back.  Even with a busy Thanksgiving weekend there really wasn't a lot of people staying at this property.  The gym was nice and spacious and was open past the normal time most exercise rooms close.  
+The room was spacious, clean and the queen size beds were really comfortable.  As other reviewers have commented on the pillows are super comfortable.  The wi-fi worked great during our stay.  Breakfast was really good and had quite a few healthy food options.  There was even some food that our picky eater tried for the first time and liked it a lot.  
+The price we paid for the weekend is what brought us to stay at this hotel.  If your looking for a hotel to stay at on the NW side...Stayed here for the Thanksgiving weekend and we were really impressed with this NW Houston property.  It's located off of US 290 a couple of miles north.  If your coming from US 290 towards this property it's located on your right.  We were actively looking for this property and still missed it the first time as there's really no signage on US 290 letting you know the property is there.  This hotel is located behind a Goodwill store.  Adding some signage on US 290 would be my only improvement suggested for this property.  This hotel is really clean and updated.  There's limited parking out front of the property with a bigger lot in the back.  Even with a busy Thanksgiving weekend there really wasn't a lot of people staying at this property.  The gym was nice and spacious and was open past the normal time most exercise rooms close.  The room was spacious, clean and the queen size beds were really comfortable.  As other reviewers have commented on the pillows are super comfortable.  The wi-fi worked great during our stay.  Breakfast was really good and had quite a few healthy food options.  There was even some food that our picky eater tried for the first time and liked it a lot.  The price we paid for the weekend is what brought us to stay at this hotel.  If your looking for a hotel to stay at on the NW side of Houston this would be a great choice and our family would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for the Thanksgiving weekend and we were really impressed with this NW Houston property.  It's located off of US 290 a couple of miles north.  If your coming from US 290 towards this property it's located on your right.  We were actively looking for this property and still missed it the first time as there's really no signage on US 290 letting you know the property is there.  This hotel is located behind a Goodwill store.  Adding some signage on US 290 would be my only improvement suggested for this property.  
+This hotel is really clean and updated.  There's limited parking out front of the property with a bigger lot in the back.  Even with a busy Thanksgiving weekend there really wasn't a lot of people staying at this property.  The gym was nice and spacious and was open past the normal time most exercise rooms close.  
+The room was spacious, clean and the queen size beds were really comfortable.  As other reviewers have commented on the pillows are super comfortable.  The wi-fi worked great during our stay.  Breakfast was really good and had quite a few healthy food options.  There was even some food that our picky eater tried for the first time and liked it a lot.  
+The price we paid for the weekend is what brought us to stay at this hotel.  If your looking for a hotel to stay at on the NW side...Stayed here for the Thanksgiving weekend and we were really impressed with this NW Houston property.  It's located off of US 290 a couple of miles north.  If your coming from US 290 towards this property it's located on your right.  We were actively looking for this property and still missed it the first time as there's really no signage on US 290 letting you know the property is there.  This hotel is located behind a Goodwill store.  Adding some signage on US 290 would be my only improvement suggested for this property.  This hotel is really clean and updated.  There's limited parking out front of the property with a bigger lot in the back.  Even with a busy Thanksgiving weekend there really wasn't a lot of people staying at this property.  The gym was nice and spacious and was open past the normal time most exercise rooms close.  The room was spacious, clean and the queen size beds were really comfortable.  As other reviewers have commented on the pillows are super comfortable.  The wi-fi worked great during our stay.  Breakfast was really good and had quite a few healthy food options.  There was even some food that our picky eater tried for the first time and liked it a lot.  The price we paid for the weekend is what brought us to stay at this hotel.  If your looking for a hotel to stay at on the NW side of Houston this would be a great choice and our family would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r244972222-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244972222</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Highly Recommend! Really Nice Location.</t>
+  </si>
+  <si>
+    <t>Very nice and clean location. The price value is great for the rooms. Breakfast is good too. The hotel sits on Walters Road, but has a 1960 address. If you like to swim or play in the water, the pool area is small, but beautiful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r244549367-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244549367</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Great Place to Stay!!</t>
+  </si>
+  <si>
+    <t>We had just left a terrible hotel and were in desperate need of a room for just 1 night. I had secured my other room at the terrible hotel through Expedia. I came to Comfort Inn because it was close to the concert venue. I asked the price and said well let me go through Expedia because it is a little cheaper. They matched the price without any questions. The room was clean and comfortable. The bathtub did not drain and someone called our room at 3:30 in the morning by mistake (which resulted in me not being able to sleep for a while) other then that our stay was wonderful! Thank you again!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>We had just left a terrible hotel and were in desperate need of a room for just 1 night. I had secured my other room at the terrible hotel through Expedia. I came to Comfort Inn because it was close to the concert venue. I asked the price and said well let me go through Expedia because it is a little cheaper. They matched the price without any questions. The room was clean and comfortable. The bathtub did not drain and someone called our room at 3:30 in the morning by mistake (which resulted in me not being able to sleep for a while) other then that our stay was wonderful! Thank you again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r234395146-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234395146</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Very good place to stay</t>
+  </si>
+  <si>
+    <t>We had exactly what we would expect of a quality brand hotel of this type - clean beds and bathrooms, friendly service, and a breakfast that was of even better quality than we had expected. My mother is a vegetarian and enjoyed the yogurt and fresh fruit that was at perfect ripeness, and my kids are super picky but ate bacon and sausage and cereals and we were well fueled for the day.Also, we didn't go swimming but the pool looked lovely.It's not an expensive or fancy place but good for the seasoned traveler who wants a simple, clean place to stay.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r200511863-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200511863</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Beautiful Inn</t>
+  </si>
+  <si>
+    <t>We picked lodging in Houston near our doctor's office prior to an appointment.  We really drew the long straw!  This property was not only handy, it was wonderful.  We operate a B&amp;B and this really made us want to go home and redo everything!  First of all, the entire place was hospital clean and shiney.  From the entry and lobby, to the check in counter to the halls and room.  It was all unique, very clean, and functional.  The room was really well appointed and the color choices were outstanding.  Our beds were super comfortable and my wife almost put one of the pillows in her purse, she liked them so much.They had an indor pool, fitness room, full breakfast in a nice sitting area, large flat screen that my wife swears was 3D and on and on.  Of course we will visit again.  Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>We picked lodging in Houston near our doctor's office prior to an appointment.  We really drew the long straw!  This property was not only handy, it was wonderful.  We operate a B&amp;B and this really made us want to go home and redo everything!  First of all, the entire place was hospital clean and shiney.  From the entry and lobby, to the check in counter to the halls and room.  It was all unique, very clean, and functional.  The room was really well appointed and the color choices were outstanding.  Our beds were super comfortable and my wife almost put one of the pillows in her purse, she liked them so much.They had an indor pool, fitness room, full breakfast in a nice sitting area, large flat screen that my wife swears was 3D and on and on.  Of course we will visit again.  Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r184833787-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184833787</t>
+  </si>
+  <si>
+    <t>11/15/2013</t>
+  </si>
+  <si>
+    <t>Awesome Place to Stay; The Best Customer Service Ever...</t>
+  </si>
+  <si>
+    <t>We travel a lot, &amp; first time we stayed here, It's Awesome place to stay, we were here for business trip. But this place made us feel like our home, Very helpful staff, very Professional, good hygienic breakfast (Lot of options), great laundry service, &amp; most importantly very clean &amp; neat rooms &amp; peaceful environment.My husband &amp; I loved to spend time at the pool sight, Overall, it's a Beautiful Experience.That's the reason, we've decided to plan to stay at this location whenever we visit Houston. I'll recommend that you should try once here, &amp; you would definately not like, but would Love this place.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r180950153-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180950153</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Really a pretty nice hotel, clean, quiet, good price, will stay here again if in the area... only complaint would be breakfast ok but not great... not a good choice of cold cereals, not the right size cups for waffle batter, but I can overlook that for the rest of the hotel.  Back off the street, a little hard to find...</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r164707072-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164707072</t>
+  </si>
+  <si>
+    <t>06/21/2013</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay</t>
+  </si>
+  <si>
+    <t>Very nice and well taken care of Hotel. Newly remodeled. Very friendly staff. Definitely will stay here again for my next family visit to Houston. Just wish the hotel would allow pet. Not to many Hotels in Houston allow pets it would be def. a plus and would bring more guest into the Hotel.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r162331715-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162331715</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>Pito G. "Family unplanned event stay"</t>
+  </si>
+  <si>
+    <t>Remodeled from my last stay,great staff,professionally managed.Love the breakfast.I will be coming back here again on my next visit.Lots of retaurants that are walking distance.enjoyed the pool with the family.Highly Recommended.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r161540654-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161540654</t>
+  </si>
+  <si>
+    <t>05/22/2013</t>
+  </si>
+  <si>
+    <t>Family unplanned event stay</t>
+  </si>
+  <si>
+    <t>Totally remodeled from my last stay, excellent staff, professionally managed, great breakfast, definetly stay here again. Parking area was well lit and Hotel is in great area. Plenty of restuarants nearby with plenty of choices to pick from.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r136266533-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136266533</t>
+  </si>
+  <si>
+    <t>08/04/2012</t>
+  </si>
+  <si>
+    <t>mean hispanic worker in the buffet kitchen</t>
+  </si>
+  <si>
+    <t>this hotel manager was very good. but the hispanic lady in the buffet kitchen was sooooo mean!!! first, i was eating with my oldest son, my little boy and daughter later joined us after my son and i finished eating. my oldest son tried to make toast bread for my daughter and little son, the hispanic lady aggressively grabbed and forced the plate out of his hand and threw the breads into the bread container right in my face. i asked "what is wrong??" she smiled and didnt know what to do. i think she knew she was getting in trouble. i asked her again "what happened??" she started speaking in spanish, and i didnt know a word that came out of her mouth. then, i asked my son, he told me that she snatched the plate out his hand and said "watch! watch!". my husband went to ask her after i told him what happened. she said she thought he was taking the food to the room. my husband reported her to the manager.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>this hotel manager was very good. but the hispanic lady in the buffet kitchen was sooooo mean!!! first, i was eating with my oldest son, my little boy and daughter later joined us after my son and i finished eating. my oldest son tried to make toast bread for my daughter and little son, the hispanic lady aggressively grabbed and forced the plate out of his hand and threw the breads into the bread container right in my face. i asked "what is wrong??" she smiled and didnt know what to do. i think she knew she was getting in trouble. i asked her again "what happened??" she started speaking in spanish, and i didnt know a word that came out of her mouth. then, i asked my son, he told me that she snatched the plate out his hand and said "watch! watch!". my husband went to ask her after i told him what happened. she said she thought he was taking the food to the room. my husband reported her to the manager.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r130032048-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130032048</t>
+  </si>
+  <si>
+    <t>05/16/2012</t>
+  </si>
+  <si>
+    <t>Comfort Inn Southwest, Houston Texas</t>
+  </si>
+  <si>
+    <t>This was a nice hotel, located in a very busy part of town. Many restaurants and lots of shopping. Our room was moderately priced and a good value for the money. We had a king bed suite that was comfortable and roomy. The only problem we experienced was due to weather. We had the misfortune to stay on a night that saw considerable rain. Up to 10" was reported in the area. The hotel has one entrance and exit road that flooded, and we were not able to leave until 12:00 noon.I would stay there again.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r123707858-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123707858</t>
+  </si>
+  <si>
+    <t>01/27/2012</t>
+  </si>
+  <si>
+    <t>Ok hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are planning in cqtching a plane in the morning this hotel is a bit far.  Takes about 45 minutes in the morning to get to airport. Also better call cab atleast 45 min before. Rooms just alright in need of updating and there was jalpeno stem on floor from previous occupant. Breakfast was ok I say that because there was no coffee made...had to ask for them to make more. </t>
   </si>
 </sst>
 </file>
@@ -532,11 +1369,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1401,2842 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>203</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>214</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" t="s">
+        <v>219</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>220</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s">
+        <v>225</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>233</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>233</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>240</v>
+      </c>
+      <c r="J34" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" t="s">
+        <v>242</v>
+      </c>
+      <c r="L34" t="s">
+        <v>243</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>244</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>247</v>
+      </c>
+      <c r="J35" t="s">
+        <v>248</v>
+      </c>
+      <c r="K35" t="s">
+        <v>249</v>
+      </c>
+      <c r="L35" t="s">
+        <v>250</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>259</v>
+      </c>
+      <c r="J37" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" t="s">
+        <v>262</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" t="s">
+        <v>268</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>269</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" t="s">
+        <v>275</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>278</v>
+      </c>
+      <c r="J40" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>282</v>
+      </c>
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>284</v>
+      </c>
+      <c r="J41" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" t="s">
+        <v>286</v>
+      </c>
+      <c r="L41" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>288</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>290</v>
+      </c>
+      <c r="J42" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" t="s">
+        <v>292</v>
+      </c>
+      <c r="L42" t="s">
+        <v>293</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>294</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>295</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>296</v>
+      </c>
+      <c r="J43" t="s">
+        <v>297</v>
+      </c>
+      <c r="K43" t="s">
+        <v>298</v>
+      </c>
+      <c r="L43" t="s">
+        <v>299</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>294</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>301</v>
+      </c>
+      <c r="J44" t="s">
+        <v>302</v>
+      </c>
+      <c r="K44" t="s">
+        <v>303</v>
+      </c>
+      <c r="L44" t="s">
+        <v>304</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>305</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>308</v>
+      </c>
+      <c r="J45" t="s">
+        <v>309</v>
+      </c>
+      <c r="K45" t="s">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s">
+        <v>311</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>312</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>314</v>
+      </c>
+      <c r="J46" t="s">
+        <v>315</v>
+      </c>
+      <c r="K46" t="s">
+        <v>316</v>
+      </c>
+      <c r="L46" t="s">
+        <v>317</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_97.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_97.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="498">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r604753435-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107768</t>
+  </si>
+  <si>
+    <t>604753435</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>It’s ok!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me and my daughter stayed there while I was visiting my family in the area. The staff there was very friendly! The only thing I didn’t like was the chlorine smell coming from the inside pool. I could smell it all in the downstairs area even my room a little. The room was very clean which was a plus! </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r601645352-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601645352</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>A Wonderful Place To Stay!!</t>
+  </si>
+  <si>
+    <t>We recently spent two days and two nights at Comfort Inn &amp; Suites...FM 1960.  It was absolutely perfect in every way!!  From the moment we stepped in the door, we were treated with great kindness and respect.  The room was immaculately clean and inviting.  The breakfast area was topnotch and the pool area was relaxing and lovely.  The desk clerk (we didn't get her name) was especially kind, welcoming and helpful.  This place is wonderful and we highly recommend!!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r600306962-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>600306962</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t>The best hotel for a fair price along the 1960 corridor and the george bush international airport horizons</t>
+  </si>
+  <si>
+    <t>I use this hotel every time I visit Houston .Has one of the best managers and the front desk staff are very friendly and professional. the rooms are very clean linens and it’s very quiet .for the price you get just as good service as some of the 4 and 5 star hotels. their suites are spacious, corridors very clean and pleasant . Breakfast area is usually very nice with fresh food every morning and you can get to the airport conveniently. My first choice every time I visit Houston</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r597386912-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107768</t>
-  </si>
-  <si>
     <t>597386912</t>
   </si>
   <si>
@@ -174,12 +234,6 @@
     <t>The room and hotel were fine. The construction around it made it a little hard to access but we worked around that. Our only issue was that we did get a confirmation email for our stay and when I called about it, they had entered our email incorrectly. When that was fixed, I saw they had booked us on the wrong night, so I called to correct it. Several hours went by and my confirmation didn't update, so I had to call again and ask that it be changed to the correct date. Everything worked out fine in the end and we enjoyed the later checkout time, but it was frustrating that we had to follow up so many times to make sure our reservation was correct.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>The room and hotel were fine. The construction around it made it a little hard to access but we worked around that. Our only issue was that we did get a confirmation email for our stay and when I called about it, they had entered our email incorrectly. When that was fixed, I saw they had booked us on the wrong night, so I called to correct it. Several hours went by and my confirmation didn't update, so I had to call again and ask that it be changed to the correct date. Everything worked out fine in the end and we enjoyed the later checkout time, but it was frustrating that we had to follow up so many times to make sure our reservation was correct.More</t>
   </si>
   <si>
@@ -201,9 +255,6 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r585190729-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -219,6 +270,36 @@
     <t>The hotel looks nice but the rooms smell really bad. My sister had to switch rooms because the smell was so bad.  My room smelled like a locker room.  We were told the entire first floor flooded during Harvey but it doesn't seem like they renovated to remove the soiled areas.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r584920124-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584920124</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Not a bad stay</t>
+  </si>
+  <si>
+    <t>The staff were very polite and helpful.  The room was clean, and sufficient for my family’s needs... nothing fancy, but it worked.  The breakfast area was a little warn, with the chair benches in severe need of re-upholstering, but it was clean, and the breakfast wasn’t bad.  If you’re wanting to stay in a really nice hotel, this probably isn’t for you, but if you just need a clean, no frills, place to stay, this hotel will work for you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r582401148-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582401148</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>tournament weekend</t>
+  </si>
+  <si>
+    <t>The staff was nice, my room kind of had a stale smell to it, but nothing bothersome enough to actually complain too much about. The woman working nights was very friendly and helpful, the thing that bothered me the most was the my "do not disturb sign was ignored" I had nothing of value and none of it was taken, but I personally do not like people in my room If I am not there. Other than that, breakfast was fair and everything else comfortable.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r578002707-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -237,9 +318,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r575651174-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -273,6 +351,45 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r560327199-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560327199</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Weekend Getaway</t>
+  </si>
+  <si>
+    <t>My family and I stayed for one night. The location was perfect and close to where we needed to be. Our accommodations were nice, comfortable, quiet and the staff was friendly and welcoming. Our stay was short, but, we will be sure to return.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r553636797-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553636797</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>Just Mediocre</t>
+  </si>
+  <si>
+    <t>Choice Hotels is my my chain of choice (pardon the pun). This location is off the main street and difficult to see.  The room was small and not very well appointed - not up to the standard of quality that I am accustomed to from Choice Hotels.  Potholes in the entryway/driveway was another unbecoming feature.  I would not stay here again. Wi-Fi was exceedingly slow. TV was not HD - picture fuzzy.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r546166776-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -312,9 +429,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r538000583-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -336,6 +450,39 @@
     <t>I booked this room thinking it was the same hotel I stayed in last time but it was not. The road leading up to the hotel had huge pot holes in the ground. The hotel parking space was small and crammed. The staff however, was really friendly. She explained everything clearly and thoroughly. When we got to the room and opened the door, a big gust of humid, hot hair hit us! It took a few hours for that humidity to go away. Our fridge was not even cold or barely working. Our bathtub was clogged. We called to get it fixed and I appreciated that the response was quick. I also liked how breakfast was served daily, just wish they had more variety and more food, because if you get there late, it won’t be as fresh. Most likely won’t come back. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r533590855-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533590855</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Two Night Stay</t>
+  </si>
+  <si>
+    <t>The hotel was small but very clean and accommodating. They had a nice small pool and outdoor area, we didn't use it but it was very nice. It's a little hard to get to off of FM 1960, it sits back off the road and there is a little drive to get in between the Salvation Army and a Chic-Filet. You have to really be looking for it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r525876985-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>525876985</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Good Hotel- Fair Rates</t>
+  </si>
+  <si>
+    <t>WOW! Lauren at the front desk was awesome, very appreciative of my stay! The rooms are nice and clean Internet connection was good as well! Breakfast was also good! Plenty of T.V. Channels, Flat Screen T,V. Has a pool also! Overall good place and Rates are fair! Thank you!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r523889807-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -351,9 +498,6 @@
     <t>Hotel was very good (as expected from Comfort Inn).  Desk lady was very pleasant, helpful, and knowledgeable.  Grounds and room were clean.  The business center computer, however, could use Microsoft Office so patrons can pull up spreadsheets,Word docs, pdfs, etc.  I also experienced one guest who tried to print and was not able to do so.  Breakfast was so-so (continental) but had the basics.  AC in the room "clunked" when the compressor engaged and disengaged.  I'd rather have consistent "white" noise throughout the night.</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r522334387-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -390,6 +534,36 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r513360391-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>513360391</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Great comfortable stay</t>
+  </si>
+  <si>
+    <t>This place is located behind a donation center on FM1960 so it's a little hard to find initially, but the good thing about being on the back road is that it's away from all the traffic noise. There is a lot of traffic on the roads of Houston even at 1 AM so this is a huge plus for the property.  You get some quiet sleep.   The breakfast was fine. The pool looked very inviting but we didn't have time.  The rooms were cleaned and towels restocked every day for us which was GREAT.  I would recommend this place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r512939091-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>512939091</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Needs some furniture upgrading</t>
+  </si>
+  <si>
+    <t>Great location with friendly staff. The do a good job at a good value. The main issue is the desk chairs need replacing. The hydraulic adjustment on the desk chairs are worn out. You sink down to the floor and you cant work from the desk. The other issue are  couches and accessory chairs and sofa pillows are ragged and tattered. Overall a nice stay but needs furniture replacement badly.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r496888466-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -444,6 +618,42 @@
     <t>I booked Hotel thru the Choice Rewards app at a prepaid rate. So I have already paid for the hotel. I was supposed to be staying The first weekend in June.  A week after I booked the Hotel, I got hired on with a company to where I will be relocated to Detroit. Now due to the relocation for my new job I am not able to stay there on the reserved dates. I have tried to cancel the room but I get the run around from both the Company and Hotel management stating they are not able to cancel the reservation at all due to it being a prepaid reservation.  So now Choice Hotels has gotten my money and I'm not going to be able to use it. Worst part is they will probably give the room to someone else and make double the money on it.  Kinda of shady if you ask me. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r484336650-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484336650</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Professional staff and friendly environment, no hassle with fees.</t>
+  </si>
+  <si>
+    <t>I checked the internet for the best rate for hotels and came across this Comfort Inn. I was hesitant because of previous reviews about the Salvation Army being located across the street, but my family felt safe. The hotel is located by several places to eat, and there is even a Walmart near by. When I arrived, the front desk staff were very professional. They did not ask for a security deposit for the room (only for those paying with cash). The breakfast staff were polite and the breakfast food was fresh, good, and sufficient amount of seating. I was pleasantly surprised. We stayed 2 nights and prepaid for the advance rate for our stay. I would stay here again and recommend to friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>I checked the internet for the best rate for hotels and came across this Comfort Inn. I was hesitant because of previous reviews about the Salvation Army being located across the street, but my family felt safe. The hotel is located by several places to eat, and there is even a Walmart near by. When I arrived, the front desk staff were very professional. They did not ask for a security deposit for the room (only for those paying with cash). The breakfast staff were polite and the breakfast food was fresh, good, and sufficient amount of seating. I was pleasantly surprised. We stayed 2 nights and prepaid for the advance rate for our stay. I would stay here again and recommend to friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r470711081-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470711081</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>NeedNew Desk Chairs and Hot Water</t>
+  </si>
+  <si>
+    <t>Barely warm water in showers and the desk chairs are all broken and the hydraulic cylinders are worn out. Needs new chairs and a new hot water system badly! Spoke to the desk clerks several times but they evidently havent told the owner yet. I doubt I will stay there again until those things are fixed.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r470376404-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -459,9 +669,6 @@
     <t xml:space="preserve">Had such a great experience with my family. The hotel was comfortable, the service was great and the receptionist we found was so welcoming.We need more like her. The view of the pool was also so beautiful. If you are in Houston I would definitely recommend checking it out. </t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r465442723-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -489,6 +696,39 @@
     <t>This was the first time I stayed here and I thought the hotel was clean and the staff was very helpful and friendly. Everything is close to this hotel, within walking distance. Very centrally located.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r465173818-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465173818</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>just great</t>
+  </si>
+  <si>
+    <t>My friend booked it, SUPERIOR desk service, amazing comfy beds, only drawback was our room phone didnt work to call the desk (317) but it was easy to take the elevator down to ask the needed questions about WiFi etc. Would book again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r458812086-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458812086</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Not great even if you find it.</t>
+  </si>
+  <si>
+    <t>1) no sign on the main road, can drive right past it.2) "business center" was a broken computer3) TV was low def, unwatchable4) wireless was useless in the end rooms, got no verizon service in the room4) no hot water in the shower, desk was like: oh yea, we got a guy coming to fix it. THEN WHY DID YOU PUT ME IN IT???? other than that not bad</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r456045301-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -540,6 +780,42 @@
     <t>This is a great hotel. The staff is very accommodating and friendly. Breakfast was very good with multiple options. The pool looks beautiful, although we didn't use it.  There are a TON of restaurants nearby and it's not too far from the freeways. Will stay again :)</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r426381417-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>426381417</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Visit to Spring, Texas</t>
+  </si>
+  <si>
+    <t>We stayed here for three days and were very comfortable and well treated by the staff. The people at the front desk were very helpful and friendly, especially Alicia. The hotel is well located and a good value.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r420542603-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>420542603</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Not for me</t>
+  </si>
+  <si>
+    <t>I read a few reviews about a musty odor in the rooms but most reviews were favorable.  I took a chance as this hotel was close to the ballpark where we were playing.  The room had a musty odor that hit you every time you walk in.  I'm glad I had febreeze with me.  The hotel lobby is nice.  Our room however looked like a shady construction worker had thrown it together.  Bathroom door frame slanted one way and the door the other.  Wall outlets were loose and didn't fit properly to the wall. The ceiling wasn't cut properly for the sprinkler.  Breakfast was fair. I will try elsewhere next time we are in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>I read a few reviews about a musty odor in the rooms but most reviews were favorable.  I took a chance as this hotel was close to the ballpark where we were playing.  The room had a musty odor that hit you every time you walk in.  I'm glad I had febreeze with me.  The hotel lobby is nice.  Our room however looked like a shady construction worker had thrown it together.  Bathroom door frame slanted one way and the door the other.  Wall outlets were loose and didn't fit properly to the wall. The ceiling wasn't cut properly for the sprinkler.  Breakfast was fair. I will try elsewhere next time we are in Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r417070963-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -594,6 +870,53 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r364464123-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364464123</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>Nice place close to everything</t>
+  </si>
+  <si>
+    <t>It is a shame that a good property like this has several small issues against it. 
+The property is set back from the street. It is difficult to find, and difficult to get to if you are coming from the east. It is right in the middle of strip-mall heaven, and the roads are busy all the time. This also means there is traffic noise all night long. Even exiting to go west is difficult in the mornings, with the side street backed up the whole block. 
+Having said that, the property itself is very nice. Good, clean rooms. Beautiful pool area (but we were there in April and the water was ice cold - I would suspect it is perfect come June/July). 
+Standard breakfast offering for this chain. Waffles, hot eggs and meat, cereal, juices, toast, etc. Breakfast room was clean and roomy.  
+The other issue was issues with the staff. We were going to do laundry. Being a considerate person, I wanted to know how long the cycles were so I did tie up the machines. When I bought laundry soap at the front desk I asked about the timing, and she pretty much just blew me off with a "how would I know?" And "anything I would tell you would be a guess." Actually, it wouldn't take too much effort to time the thing, and knowing it would be a bonus service. By the way, the wash...It is a shame that a good property like this has several small issues against it. The property is set back from the street. It is difficult to find, and difficult to get to if you are coming from the east. It is right in the middle of strip-mall heaven, and the roads are busy all the time. This also means there is traffic noise all night long. Even exiting to go west is difficult in the mornings, with the side street backed up the whole block. Having said that, the property itself is very nice. Good, clean rooms. Beautiful pool area (but we were there in April and the water was ice cold - I would suspect it is perfect come June/July). Standard breakfast offering for this chain. Waffles, hot eggs and meat, cereal, juices, toast, etc. Breakfast room was clean and roomy.  The other issue was issues with the staff. We were going to do laundry. Being a considerate person, I wanted to know how long the cycles were so I did tie up the machines. When I bought laundry soap at the front desk I asked about the timing, and she pretty much just blew me off with a "how would I know?" And "anything I would tell you would be a guess." Actually, it wouldn't take too much effort to time the thing, and knowing it would be a bonus service. By the way, the wash cycle was 30 minutes and the dry cycle was 45 minutes. Another useful thing would be to put a trash can in the laundry room. We were there two nights. The cleaning crew did not refresh our ice/drink service. Everything else was done. We needed new cups, so I went down to ask for some. You know, those clear, eight ounce plastic cups that are individually wrapped in thin plastic. Yes, those. Well, the front desk lady had no clue. Never heard of it before. I could not explain it well enough for her. First she brought back the foam coffee cups. Then she claimed that they offered no such thing. Eventually she pointed to the smaller plastic cups at the "refresh" station (which, by the way had a great lemon water, well iced, the entire time we were there). Another case of don't know, and doesn't want to know. The hook latch at the top of our door was broken. At check out I made a special point to tell the front desk clerk about it. It was clear they did not care whatsoever. If these small staff issues could be corrected, this would be a solid five. Instead, I have to give it a four. MoreShow less</t>
+  </si>
+  <si>
+    <t>It is a shame that a good property like this has several small issues against it. 
+The property is set back from the street. It is difficult to find, and difficult to get to if you are coming from the east. It is right in the middle of strip-mall heaven, and the roads are busy all the time. This also means there is traffic noise all night long. Even exiting to go west is difficult in the mornings, with the side street backed up the whole block. 
+Having said that, the property itself is very nice. Good, clean rooms. Beautiful pool area (but we were there in April and the water was ice cold - I would suspect it is perfect come June/July). 
+Standard breakfast offering for this chain. Waffles, hot eggs and meat, cereal, juices, toast, etc. Breakfast room was clean and roomy.  
+The other issue was issues with the staff. We were going to do laundry. Being a considerate person, I wanted to know how long the cycles were so I did tie up the machines. When I bought laundry soap at the front desk I asked about the timing, and she pretty much just blew me off with a "how would I know?" And "anything I would tell you would be a guess." Actually, it wouldn't take too much effort to time the thing, and knowing it would be a bonus service. By the way, the wash...It is a shame that a good property like this has several small issues against it. The property is set back from the street. It is difficult to find, and difficult to get to if you are coming from the east. It is right in the middle of strip-mall heaven, and the roads are busy all the time. This also means there is traffic noise all night long. Even exiting to go west is difficult in the mornings, with the side street backed up the whole block. Having said that, the property itself is very nice. Good, clean rooms. Beautiful pool area (but we were there in April and the water was ice cold - I would suspect it is perfect come June/July). Standard breakfast offering for this chain. Waffles, hot eggs and meat, cereal, juices, toast, etc. Breakfast room was clean and roomy.  The other issue was issues with the staff. We were going to do laundry. Being a considerate person, I wanted to know how long the cycles were so I did tie up the machines. When I bought laundry soap at the front desk I asked about the timing, and she pretty much just blew me off with a "how would I know?" And "anything I would tell you would be a guess." Actually, it wouldn't take too much effort to time the thing, and knowing it would be a bonus service. By the way, the wash cycle was 30 minutes and the dry cycle was 45 minutes. Another useful thing would be to put a trash can in the laundry room. We were there two nights. The cleaning crew did not refresh our ice/drink service. Everything else was done. We needed new cups, so I went down to ask for some. You know, those clear, eight ounce plastic cups that are individually wrapped in thin plastic. Yes, those. Well, the front desk lady had no clue. Never heard of it before. I could not explain it well enough for her. First she brought back the foam coffee cups. Then she claimed that they offered no such thing. Eventually she pointed to the smaller plastic cups at the "refresh" station (which, by the way had a great lemon water, well iced, the entire time we were there). Another case of don't know, and doesn't want to know. The hook latch at the top of our door was broken. At check out I made a special point to tell the front desk clerk about it. It was clear they did not care whatsoever. If these small staff issues could be corrected, this would be a solid five. Instead, I have to give it a four. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r359106183-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>359106183</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Oasis in Houston</t>
+  </si>
+  <si>
+    <t>Just recently hosted a women's retreat at this hotel and was very pleased with it.  It is set back off the road and has an old Salvation Army thrift store partially in front of it but the landscaping around the hotel and pool area makes up for the mess of the thrift store.  The pool is an inviting oasis even though it is small.  The hotel and meeting space was clean and nicely decorated.  My only complaint is that the thermostat for the meeting space could not be adjusted independently.  It was linked to the lobby thermostat and thus was very cold most of the time being a closed room.  The Staff was courteous and efficient.  We will definitely keep this hotel in mind for future retreats.  Another plus was the new Chick-fil-A in front of the hotel.  Made for some really convenient lunches.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Just recently hosted a women's retreat at this hotel and was very pleased with it.  It is set back off the road and has an old Salvation Army thrift store partially in front of it but the landscaping around the hotel and pool area makes up for the mess of the thrift store.  The pool is an inviting oasis even though it is small.  The hotel and meeting space was clean and nicely decorated.  My only complaint is that the thermostat for the meeting space could not be adjusted independently.  It was linked to the lobby thermostat and thus was very cold most of the time being a closed room.  The Staff was courteous and efficient.  We will definitely keep this hotel in mind for future retreats.  Another plus was the new Chick-fil-A in front of the hotel.  Made for some really convenient lunches.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r358866277-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -609,9 +932,6 @@
     <t xml:space="preserve">Outside appearance was nice, first impression of the inside was good. Staff was friendly. Our room was clean and fresh, bathroom was spic and span, bed/mattress was very comfortable and breakfast was delicious. I would stay again and again.  </t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r332757118-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -645,6 +965,39 @@
     <t>The Comfort Inn is a great place to stay if working or visiting the Cypress Creek / 1960 / 2920 area. I've been staying there on and off for a couple of months and the staff is exceptional. Great offering of fresh food in the morning including continental style breakfast with eggs, bacon, breakfast sausage, waffles, etc. Has easy to use washing machine and dryer on site if needed, free parking and Wi-Fi.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r326232581-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326232581</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Safe but needs improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel looks like it was built in a hurry and maintained poorly. My first room smelled musty and damp. I asked to be moved and they did move me. The new room was clean and I was thankful. The location could easily be missed if you are not paying attention. The staff was helpful when needed. The quality of the hotel looked poor to me. If you can get a deal, stay here. If you are looking to be impressed, keep shopping. </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r321927904-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321927904</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>ENJOYABLE STAY</t>
+  </si>
+  <si>
+    <t>the staff was graet always helpful and the manager marie was excellent she is a very helpful and an excellent humanbeing rest .......l.i can say an excellent must stay hotel  i want to thank you to every one in tghe hotel for making my stay enjoyable...</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r318480036-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -700,6 +1053,45 @@
   </si>
   <si>
     <t>I stayed for one night in early August 2015 for a work trip.  Esmerelda checked us in a accommodated our request for a different room as well as had all the paperwork in order.  She made the tax free form process easy.  Our room was comfortable, clean and modern.  The beds were soft and comfortable.  There was ample hot water in the shower and plenty of supplies.  There was a small pool in the back, that was nicely landscaped.  I did not eat the breakfast, but it looked good and had many fresh options available.  Also, at checkout, I needed help with printing a document and getting a copy.  The front desk staff was very patient and helpful.  I will stay here again when I come back to North Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r289321858-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289321858</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>ok place to stay</t>
+  </si>
+  <si>
+    <t>This hotel is not on Champions, but off a side street, and is very hard to find unless you know to look behind the Salvation Army store.  It is not picturesque in the least bit, but is clean and a place to stay, and we got a good deal on Priceline.  Always before we could stay another night in a Priceline hotel if they had room, for the same price we paid on Priceline, and I was told by two people on the phone that this would be available there too if we needed another night.  We did need an extra night, but they would not accept the Priceline price, even though I had been told that they would.  It ended up being a heck of a lot more than the rate we had, although they did give me some off - it was still way more expensive than I would have paid for this hotel.  The room was big, but there was a dirty washrag left in the shower for two nights until I asked that it be removed.  On one night they cleaned the room, but left the bed unmade for some reason, so not sure why, but they don't seem to have the housekeeping in order.  The pool is very small, but is pretty with plants around it.  The breakfast was adequate, the usual hotel fare with toast/waffles and fruit and muffins and oatmeal and boiled eggs...This hotel is not on Champions, but off a side street, and is very hard to find unless you know to look behind the Salvation Army store.  It is not picturesque in the least bit, but is clean and a place to stay, and we got a good deal on Priceline.  Always before we could stay another night in a Priceline hotel if they had room, for the same price we paid on Priceline, and I was told by two people on the phone that this would be available there too if we needed another night.  We did need an extra night, but they would not accept the Priceline price, even though I had been told that they would.  It ended up being a heck of a lot more than the rate we had, although they did give me some off - it was still way more expensive than I would have paid for this hotel.  The room was big, but there was a dirty washrag left in the shower for two nights until I asked that it be removed.  On one night they cleaned the room, but left the bed unmade for some reason, so not sure why, but they don't seem to have the housekeeping in order.  The pool is very small, but is pretty with plants around it.  The breakfast was adequate, the usual hotel fare with toast/waffles and fruit and muffins and oatmeal and boiled eggs and yogurt.  The beds were ok, and the linens ok, but there were dark stains around the tub here and there, and a few cracks and places that needed patching around the doors and walls and tiles.  Seemed clean, but not kept up very well.  It was an ok hotel except for the extra night, but I would not spend that kind of money that they wanted for the extra night in that kind of place.  You are looking out your window at the back of the Salvation Army where all the junk Is stored, and there is absolutely nothing pretty or nice to look at except that view or the parking lot.  Would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>This hotel is not on Champions, but off a side street, and is very hard to find unless you know to look behind the Salvation Army store.  It is not picturesque in the least bit, but is clean and a place to stay, and we got a good deal on Priceline.  Always before we could stay another night in a Priceline hotel if they had room, for the same price we paid on Priceline, and I was told by two people on the phone that this would be available there too if we needed another night.  We did need an extra night, but they would not accept the Priceline price, even though I had been told that they would.  It ended up being a heck of a lot more than the rate we had, although they did give me some off - it was still way more expensive than I would have paid for this hotel.  The room was big, but there was a dirty washrag left in the shower for two nights until I asked that it be removed.  On one night they cleaned the room, but left the bed unmade for some reason, so not sure why, but they don't seem to have the housekeeping in order.  The pool is very small, but is pretty with plants around it.  The breakfast was adequate, the usual hotel fare with toast/waffles and fruit and muffins and oatmeal and boiled eggs...This hotel is not on Champions, but off a side street, and is very hard to find unless you know to look behind the Salvation Army store.  It is not picturesque in the least bit, but is clean and a place to stay, and we got a good deal on Priceline.  Always before we could stay another night in a Priceline hotel if they had room, for the same price we paid on Priceline, and I was told by two people on the phone that this would be available there too if we needed another night.  We did need an extra night, but they would not accept the Priceline price, even though I had been told that they would.  It ended up being a heck of a lot more than the rate we had, although they did give me some off - it was still way more expensive than I would have paid for this hotel.  The room was big, but there was a dirty washrag left in the shower for two nights until I asked that it be removed.  On one night they cleaned the room, but left the bed unmade for some reason, so not sure why, but they don't seem to have the housekeeping in order.  The pool is very small, but is pretty with plants around it.  The breakfast was adequate, the usual hotel fare with toast/waffles and fruit and muffins and oatmeal and boiled eggs and yogurt.  The beds were ok, and the linens ok, but there were dark stains around the tub here and there, and a few cracks and places that needed patching around the doors and walls and tiles.  Seemed clean, but not kept up very well.  It was an ok hotel except for the extra night, but I would not spend that kind of money that they wanted for the extra night in that kind of place.  You are looking out your window at the back of the Salvation Army where all the junk Is stored, and there is absolutely nothing pretty or nice to look at except that view or the parking lot.  Would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r288340288-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288340288</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Great Job my rating 100+</t>
+  </si>
+  <si>
+    <t>I would like to think the front desk clerk ,Robert for all the great things that he does, to make you feel like you are at home away from home he make sure that every eye is dotted and every T crossed.I have been coming to that property for three at less once every others month,no matter where I am in Houston that's where I like to stay because of Robert think you for being so nice to use.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r273201310-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
@@ -762,6 +1154,45 @@
 The price we paid for the weekend is what brought us to stay at this hotel.  If your looking for a hotel to stay at on the NW side...Stayed here for the Thanksgiving weekend and we were really impressed with this NW Houston property.  It's located off of US 290 a couple of miles north.  If your coming from US 290 towards this property it's located on your right.  We were actively looking for this property and still missed it the first time as there's really no signage on US 290 letting you know the property is there.  This hotel is located behind a Goodwill store.  Adding some signage on US 290 would be my only improvement suggested for this property.  This hotel is really clean and updated.  There's limited parking out front of the property with a bigger lot in the back.  Even with a busy Thanksgiving weekend there really wasn't a lot of people staying at this property.  The gym was nice and spacious and was open past the normal time most exercise rooms close.  The room was spacious, clean and the queen size beds were really comfortable.  As other reviewers have commented on the pillows are super comfortable.  The wi-fi worked great during our stay.  Breakfast was really good and had quite a few healthy food options.  There was even some food that our picky eater tried for the first time and liked it a lot.  The price we paid for the weekend is what brought us to stay at this hotel.  If your looking for a hotel to stay at on the NW side of Houston this would be a great choice and our family would definitely stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r263717673-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263717673</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t>hotel stay</t>
+  </si>
+  <si>
+    <t>First stayed in mid March 2015 for 6 nights.  Rooms and service good, but breakfast menu needs to be expanded,  seems to go on a 3 day rotation for the hot food.  Still is adequate.  Had problems with wi-fi  Slow connection even in Business Centre and was nor sorted out before we left 1st timeCame back in late March - still wi fi problems, but after complaining it was sorted out.The staff are all very friendly and helpful and made our stay comfortable.  We would like particularly thank Jessica that gave us such a warm welcome and help sorting out wi fi connection and finding places of local interest, Also Channel and Martha  Would stay there again, but with the hope they will provide a more varied breakfast selection.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>First stayed in mid March 2015 for 6 nights.  Rooms and service good, but breakfast menu needs to be expanded,  seems to go on a 3 day rotation for the hot food.  Still is adequate.  Had problems with wi-fi  Slow connection even in Business Centre and was nor sorted out before we left 1st timeCame back in late March - still wi fi problems, but after complaining it was sorted out.The staff are all very friendly and helpful and made our stay comfortable.  We would like particularly thank Jessica that gave us such a warm welcome and help sorting out wi fi connection and finding places of local interest, Also Channel and Martha  Would stay there again, but with the hope they will provide a more varied breakfast selection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r256570461-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256570461</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>Very nice, clean, great location</t>
+  </si>
+  <si>
+    <t>The large name brand hotels around this area were all about twice the price of this one. I checked in for a brief Houston business trip and I was impressed with all aspects of my stay. The hotel is overly clean and updated, had a gym and a business center, as well as a nice pool and daily breakfast. Outside of that the service was excellent and there was no extra charge or issue with parking. I will stay here the next time I am in this area of Houston for sure. Save your money and stay here, you won't be disappointed.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r244972222-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -816,6 +1247,59 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r233101953-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233101953</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>More than what I expected.</t>
+  </si>
+  <si>
+    <t>October 2014.
+Selected this place because I wanted a place outside the road construction and congestion of the belt loops. That requirement was not met.
+ FM1960 is typical of a Texas large city with pack-them-in growth. This FM road has become multi-lane, jam-packed with strip malls, gas stations restaurants and motels, traffic lights every few hundred yards and some locals still try to move at 65mph while weaving lanes and running yellow to red lights. Even with a GPS one may have to back track to get to a destination.
+Although this motel can been seen from FM1960, it is on a side street off a side street. Once found it is easy to find again, but not the location to find for the first time at night.
+There is parking in the back, but the configuration and access lane is not good for trailers or even large single rear axle trucks and motor homes.
+Across FM1960 from the motel location is Wal-Mart and a Panda Express restaurant.
+Now the good points:
+ Clean room, lobby, breakfast room. There is an exercise room with a towel supply (although some sweaty users have not learned how to wipe down equipment after use).
+Tub/shower walls were granite slabs. Grab bar on the wall with the shower head. Sink counter seemed lower than those of most other motels. 
+Hard and soft pillows on the bed.
+TV remote is noted as being "clean." It did...October 2014.Selected this place because I wanted a place outside the road construction and congestion of the belt loops. That requirement was not met. FM1960 is typical of a Texas large city with pack-them-in growth. This FM road has become multi-lane, jam-packed with strip malls, gas stations restaurants and motels, traffic lights every few hundred yards and some locals still try to move at 65mph while weaving lanes and running yellow to red lights. Even with a GPS one may have to back track to get to a destination.Although this motel can been seen from FM1960, it is on a side street off a side street. Once found it is easy to find again, but not the location to find for the first time at night.There is parking in the back, but the configuration and access lane is not good for trailers or even large single rear axle trucks and motor homes.Across FM1960 from the motel location is Wal-Mart and a Panda Express restaurant.Now the good points: Clean room, lobby, breakfast room. There is an exercise room with a towel supply (although some sweaty users have not learned how to wipe down equipment after use).Tub/shower walls were granite slabs. Grab bar on the wall with the shower head. Sink counter seemed lower than those of most other motels. Hard and soft pillows on the bed.TV remote is noted as being "clean." It did look clean and when I picked-up the remote it felt clean. Although I wipe the remote, telephone, clock and other surfaces, this room did not look and feel as if it needed my cleaning.If traveling from the south east (I-10) to Austin, or reverse, I prefer to avoid the I-10 and belt loops routes of Houston. I use Route 90, FM1960, Route 290. Yes, you slow down for the villages between Houston and Beaumont, but there are higher speed areas n between the communites without the traffic congestion. This motel remains on my list of places for overnight lodging.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014.
+Selected this place because I wanted a place outside the road construction and congestion of the belt loops. That requirement was not met.
+ FM1960 is typical of a Texas large city with pack-them-in growth. This FM road has become multi-lane, jam-packed with strip malls, gas stations restaurants and motels, traffic lights every few hundred yards and some locals still try to move at 65mph while weaving lanes and running yellow to red lights. Even with a GPS one may have to back track to get to a destination.
+Although this motel can been seen from FM1960, it is on a side street off a side street. Once found it is easy to find again, but not the location to find for the first time at night.
+There is parking in the back, but the configuration and access lane is not good for trailers or even large single rear axle trucks and motor homes.
+Across FM1960 from the motel location is Wal-Mart and a Panda Express restaurant.
+Now the good points:
+ Clean room, lobby, breakfast room. There is an exercise room with a towel supply (although some sweaty users have not learned how to wipe down equipment after use).
+Tub/shower walls were granite slabs. Grab bar on the wall with the shower head. Sink counter seemed lower than those of most other motels. 
+Hard and soft pillows on the bed.
+TV remote is noted as being "clean." It did...October 2014.Selected this place because I wanted a place outside the road construction and congestion of the belt loops. That requirement was not met. FM1960 is typical of a Texas large city with pack-them-in growth. This FM road has become multi-lane, jam-packed with strip malls, gas stations restaurants and motels, traffic lights every few hundred yards and some locals still try to move at 65mph while weaving lanes and running yellow to red lights. Even with a GPS one may have to back track to get to a destination.Although this motel can been seen from FM1960, it is on a side street off a side street. Once found it is easy to find again, but not the location to find for the first time at night.There is parking in the back, but the configuration and access lane is not good for trailers or even large single rear axle trucks and motor homes.Across FM1960 from the motel location is Wal-Mart and a Panda Express restaurant.Now the good points: Clean room, lobby, breakfast room. There is an exercise room with a towel supply (although some sweaty users have not learned how to wipe down equipment after use).Tub/shower walls were granite slabs. Grab bar on the wall with the shower head. Sink counter seemed lower than those of most other motels. Hard and soft pillows on the bed.TV remote is noted as being "clean." It did look clean and when I picked-up the remote it felt clean. Although I wipe the remote, telephone, clock and other surfaces, this room did not look and feel as if it needed my cleaning.If traveling from the south east (I-10) to Austin, or reverse, I prefer to avoid the I-10 and belt loops routes of Houston. I use Route 90, FM1960, Route 290. Yes, you slow down for the villages between Houston and Beaumont, but there are higher speed areas n between the communites without the traffic congestion. This motel remains on my list of places for overnight lodging.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r202568898-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202568898</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>dirty bedding</t>
+  </si>
+  <si>
+    <t>I was in houston visiting a friend. I had a very late check in that was quick and the gentleman working the desk was very polite. As i checked into my room i discovered a very dirty bedcover that was stained and was covered with some long hair from the previouse guest. Not what i was looking for after a long drive i just wanted to sleep and relaxe. I didnt call the desk to get it replaced just took it off to the side and figured it will be changed in the morning, well i was wrong.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r200511863-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -873,6 +1357,39 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r180639861-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180639861</t>
+  </si>
+  <si>
+    <t>10/11/2013</t>
+  </si>
+  <si>
+    <t>Very good, one recommendation</t>
+  </si>
+  <si>
+    <t>Everything, the sheets, the bathroom, the shower experience, the front-end staff, the outdoor rock pool with Jacuzzi and mid-west landscaping, the free breakfast, the laundry service...all of it was very very nice. One recommendation; I noticed all the bulbs are the energy saving, florescent  "bright white" or "daylight" kind that give off a harsh whitish light. May I kindly recommend instead, the "warm white" LED bulbs. These will save much more energy AND give off a softer, more comfortable yellowish lightThis hotel is EXCELLENT for lodging while seeing the Galactic Cowboys playing next door at the Acadia Bar &amp; Grill!!!</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r177812206-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177812206</t>
+  </si>
+  <si>
+    <t>09/19/2013</t>
+  </si>
+  <si>
+    <t>excellent experience</t>
+  </si>
+  <si>
+    <t>I have been staying at this property for the last several months and the staff here is very professional and the property is well maintained.I stay there three to five days a week and haven't had the first problem.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r164707072-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1441,39 @@
     <t>Totally remodeled from my last stay, excellent staff, professionally managed, great breakfast, definetly stay here again. Parking area was well lit and Hotel is in great area. Plenty of restuarants nearby with plenty of choices to pick from.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r158076267-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158076267</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>Very efficient and clean</t>
+  </si>
+  <si>
+    <t>Was on a business trip.  Pleasantly surprised with the hotel.  Recently refurbished.  It was extremely clean and the staff was very courteous and efficient.  Would definitely stay there if work brought me to that part of houston again.Highly recommended.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r155039843-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155039843</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>Excellent Owner, Great Hotel, Nice Staff</t>
+  </si>
+  <si>
+    <t>I had been at this hotel in the mid of Feb'2013 and must I say I completely enjoyed staying here.... the owner/manager Mr.Kenny is a pretty cool guy... the staff is really nice , helping and caring.Food is good, ambiance is clean and hygienic.Had an amazing time there.... God Bless them All.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r136266533-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
   </si>
   <si>
@@ -976,6 +1526,24 @@
   </si>
   <si>
     <t xml:space="preserve">If you are planning in cqtching a plane in the morning this hotel is a bit far.  Takes about 45 minutes in the morning to get to airport. Also better call cab atleast 45 min before. Rooms just alright in need of updating and there was jalpeno stem on floor from previous occupant. Breakfast was ok I say that because there was no coffee made...had to ask for them to make more. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107768-r120375858-Comfort_Inn_Suites_FM1960_Champions-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120375858</t>
+  </si>
+  <si>
+    <t>11/09/2011</t>
+  </si>
+  <si>
+    <t>Comfort indeed</t>
+  </si>
+  <si>
+    <t>We were obliged to stay at Comfort because a bigger hotel chain screwed up our booking. The place was most reasonable with excellent accommodation that exceded our expectations. The room was immaculate  well laid out with wi-fi   flat screen tv and rasteful furniture. There was a comfortable seating area within the room which also served as a worspace. The breafkfast which was included was most comprehensive and filling. I am glad we missed out on th more expensive big brother hotel and would give Comfort serious consieration in future</t>
+  </si>
+  <si>
+    <t>October 2011</t>
   </si>
 </sst>
 </file>
@@ -1519,24 +2087,18 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1552,44 +2114,44 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1597,7 +2159,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1613,34 +2175,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1654,7 +2216,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1694,24 +2256,30 @@
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1727,48 +2295,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>72</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1805,24 +2377,20 @@
         <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1845,52 +2413,48 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>85</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>86</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>87</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>88</v>
       </c>
-      <c r="L8" t="s">
-        <v>89</v>
-      </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
         <v>53</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1906,48 +2470,54 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
         <v>92</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>93</v>
       </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" t="s">
-        <v>96</v>
-      </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -1963,34 +2533,34 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s">
-        <v>97</v>
-      </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2004,7 +2574,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -2020,7 +2590,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2029,43 +2599,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -2081,7 +2647,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2090,37 +2656,35 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2128,7 +2692,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -2144,7 +2708,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2153,39 +2717,45 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
@@ -2201,7 +2771,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2210,35 +2780,37 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2246,7 +2818,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
@@ -2262,7 +2834,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2271,39 +2843,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -2319,34 +2895,34 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>136</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K16" t="s">
-        <v>139</v>
-      </c>
-      <c r="L16" t="s">
-        <v>140</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>135</v>
-      </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2360,7 +2936,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
@@ -2376,34 +2952,34 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" t="s">
         <v>142</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>143</v>
-      </c>
-      <c r="J17" t="s">
-        <v>144</v>
-      </c>
-      <c r="K17" t="s">
-        <v>145</v>
-      </c>
-      <c r="L17" t="s">
-        <v>146</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>147</v>
-      </c>
-      <c r="O17" t="s">
-        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2417,7 +2993,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
@@ -2433,46 +3009,46 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
         <v>148</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" t="s">
-        <v>150</v>
-      </c>
-      <c r="K18" t="s">
-        <v>151</v>
-      </c>
-      <c r="L18" t="s">
-        <v>152</v>
-      </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2480,7 +3056,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
@@ -2496,43 +3072,41 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" t="s">
         <v>153</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>154</v>
       </c>
-      <c r="J19" t="s">
-        <v>150</v>
-      </c>
-      <c r="K19" t="s">
-        <v>155</v>
-      </c>
-      <c r="L19" t="s">
-        <v>156</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>147</v>
-      </c>
       <c r="O19" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -2543,7 +3117,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
@@ -2559,41 +3133,39 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
         <v>157</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>158</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>159</v>
       </c>
-      <c r="K20" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" t="s">
-        <v>161</v>
-      </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O20" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
@@ -2606,7 +3178,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
@@ -2622,36 +3194,38 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s">
         <v>163</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>164</v>
       </c>
-      <c r="J21" t="s">
-        <v>165</v>
-      </c>
-      <c r="K21" t="s">
-        <v>166</v>
-      </c>
-      <c r="L21" t="s">
-        <v>167</v>
-      </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="n">
@@ -2667,7 +3241,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
@@ -2683,52 +3257,48 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" t="s">
         <v>169</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>170</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>171</v>
       </c>
-      <c r="K22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L22" t="s">
-        <v>173</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>168</v>
-      </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23">
@@ -2744,48 +3314,54 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" t="s">
         <v>174</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>175</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>176</v>
       </c>
-      <c r="K23" t="s">
-        <v>177</v>
-      </c>
-      <c r="L23" t="s">
-        <v>178</v>
-      </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="O23" t="s">
         <v>53</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24">
@@ -2801,48 +3377,54 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" t="s">
         <v>180</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>181</v>
       </c>
-      <c r="J24" t="s">
-        <v>182</v>
-      </c>
-      <c r="K24" t="s">
-        <v>183</v>
-      </c>
-      <c r="L24" t="s">
-        <v>184</v>
-      </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25">
@@ -2858,46 +3440,44 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" t="s">
+        <v>184</v>
+      </c>
+      <c r="K25" t="s">
+        <v>185</v>
+      </c>
+      <c r="L25" t="s">
         <v>186</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>187</v>
       </c>
-      <c r="J25" t="s">
-        <v>188</v>
-      </c>
-      <c r="K25" t="s">
-        <v>189</v>
-      </c>
-      <c r="L25" t="s">
-        <v>190</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>191</v>
-      </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2905,7 +3485,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26">
@@ -2921,31 +3501,31 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" t="s">
         <v>192</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
         <v>193</v>
-      </c>
-      <c r="J26" t="s">
-        <v>194</v>
-      </c>
-      <c r="K26" t="s">
-        <v>195</v>
-      </c>
-      <c r="L26" t="s">
-        <v>196</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>197</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
@@ -2962,7 +3542,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
@@ -2978,54 +3558,48 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>195</v>
+      </c>
+      <c r="J27" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" t="s">
+        <v>197</v>
+      </c>
+      <c r="L27" t="s">
         <v>198</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>199</v>
-      </c>
-      <c r="J27" t="s">
-        <v>200</v>
-      </c>
-      <c r="K27" t="s">
-        <v>201</v>
-      </c>
-      <c r="L27" t="s">
-        <v>202</v>
-      </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
@@ -3041,40 +3615,40 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" t="s">
         <v>204</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>205</v>
-      </c>
-      <c r="J28" t="s">
-        <v>206</v>
-      </c>
-      <c r="K28" t="s">
-        <v>207</v>
-      </c>
-      <c r="L28" t="s">
-        <v>208</v>
-      </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3086,7 +3660,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
@@ -3102,44 +3676,44 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" t="s">
         <v>209</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>210</v>
       </c>
-      <c r="J29" t="s">
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>211</v>
       </c>
-      <c r="K29" t="s">
-        <v>212</v>
-      </c>
-      <c r="L29" t="s">
-        <v>213</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>214</v>
-      </c>
       <c r="O29" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" t="n">
+        <v>66</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
         <v>3</v>
       </c>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3147,7 +3721,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
@@ -3163,52 +3737,48 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" t="s">
         <v>215</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>216</v>
       </c>
-      <c r="J30" t="s">
-        <v>217</v>
-      </c>
-      <c r="K30" t="s">
-        <v>218</v>
-      </c>
-      <c r="L30" t="s">
-        <v>219</v>
-      </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>1</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31">
@@ -3224,40 +3794,42 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>218</v>
+      </c>
+      <c r="J31" t="s">
+        <v>219</v>
+      </c>
+      <c r="K31" t="s">
+        <v>220</v>
+      </c>
+      <c r="L31" t="s">
         <v>221</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>222</v>
-      </c>
-      <c r="J31" t="s">
-        <v>223</v>
-      </c>
-      <c r="K31" t="s">
-        <v>224</v>
-      </c>
-      <c r="L31" t="s">
-        <v>225</v>
-      </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -3269,7 +3841,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32">
@@ -3285,7 +3857,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3294,39 +3866,45 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J32" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L32" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33">
@@ -3342,7 +3920,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3351,34 +3929,34 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
         <v>5</v>
       </c>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -3389,7 +3967,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
@@ -3405,7 +3983,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3414,35 +3992,37 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="J34" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K34" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3450,7 +4030,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35">
@@ -3466,7 +4046,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3475,34 +4055,34 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="J35" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="K35" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+      <c r="N35" t="s">
+        <v>242</v>
+      </c>
+      <c r="O35" t="s">
+        <v>123</v>
+      </c>
       <c r="P35" t="n">
         <v>5</v>
       </c>
       <c r="Q35" t="n">
         <v>5</v>
       </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -3513,7 +4093,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36">
@@ -3529,7 +4109,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3538,34 +4118,32 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K36" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -3576,7 +4154,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
@@ -3592,7 +4170,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3601,35 +4179,35 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="J37" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="K37" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L37" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3637,7 +4215,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
@@ -3653,7 +4231,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3662,38 +4240,34 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J38" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="K38" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="L38" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="O38" t="s">
-        <v>73</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -3704,7 +4278,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39">
@@ -3720,7 +4294,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3729,49 +4303,35 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="J39" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K39" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>276</v>
-      </c>
-      <c r="O39" t="s">
-        <v>73</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40">
@@ -3787,7 +4347,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3796,49 +4356,39 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="J40" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="K40" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="O40" t="s">
-        <v>73</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
@@ -3854,7 +4404,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -3863,49 +4413,39 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J41" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="K41" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="L41" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>4</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42">
@@ -3921,7 +4461,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -3930,41 +4470,37 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="K42" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="L42" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3972,7 +4508,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43">
@@ -3988,7 +4524,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -3997,49 +4533,35 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J43" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="K43" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="L43" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s">
-        <v>294</v>
-      </c>
-      <c r="O43" t="s">
-        <v>61</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
@@ -4055,7 +4577,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4064,41 +4586,37 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="J44" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K44" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L44" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
         <v>4</v>
       </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4106,7 +4624,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45">
@@ -4122,7 +4640,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4131,49 +4649,39 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="J45" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="K45" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L45" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="O45" t="s">
-        <v>61</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>4</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46">
@@ -4189,7 +4697,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4198,37 +4706,37 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="J46" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="K46" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L46" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>307</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4236,7 +4744,2023 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>308</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>309</v>
+      </c>
+      <c r="J47" t="s">
+        <v>310</v>
+      </c>
+      <c r="K47" t="s">
+        <v>311</v>
+      </c>
+      <c r="L47" t="s">
+        <v>312</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>307</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>313</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>314</v>
+      </c>
+      <c r="J48" t="s">
+        <v>315</v>
+      </c>
+      <c r="K48" t="s">
+        <v>316</v>
+      </c>
+      <c r="L48" t="s">
         <v>317</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>318</v>
+      </c>
+      <c r="O48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>319</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>320</v>
+      </c>
+      <c r="J49" t="s">
+        <v>321</v>
+      </c>
+      <c r="K49" t="s">
+        <v>322</v>
+      </c>
+      <c r="L49" t="s">
+        <v>323</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>324</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>325</v>
+      </c>
+      <c r="J50" t="s">
+        <v>326</v>
+      </c>
+      <c r="K50" t="s">
+        <v>327</v>
+      </c>
+      <c r="L50" t="s">
+        <v>328</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>329</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>330</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>331</v>
+      </c>
+      <c r="J51" t="s">
+        <v>332</v>
+      </c>
+      <c r="K51" t="s">
+        <v>333</v>
+      </c>
+      <c r="L51" t="s">
+        <v>334</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>335</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>336</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>337</v>
+      </c>
+      <c r="J52" t="s">
+        <v>338</v>
+      </c>
+      <c r="K52" t="s">
+        <v>339</v>
+      </c>
+      <c r="L52" t="s">
+        <v>340</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>341</v>
+      </c>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>343</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>344</v>
+      </c>
+      <c r="J53" t="s">
+        <v>345</v>
+      </c>
+      <c r="K53" t="s">
+        <v>346</v>
+      </c>
+      <c r="L53" t="s">
+        <v>347</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>348</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>350</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>351</v>
+      </c>
+      <c r="J54" t="s">
+        <v>352</v>
+      </c>
+      <c r="K54" t="s">
+        <v>353</v>
+      </c>
+      <c r="L54" t="s">
+        <v>354</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>355</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>357</v>
+      </c>
+      <c r="J55" t="s">
+        <v>358</v>
+      </c>
+      <c r="K55" t="s">
+        <v>359</v>
+      </c>
+      <c r="L55" t="s">
+        <v>360</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>361</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>362</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>363</v>
+      </c>
+      <c r="J56" t="s">
+        <v>364</v>
+      </c>
+      <c r="K56" t="s">
+        <v>365</v>
+      </c>
+      <c r="L56" t="s">
+        <v>366</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>361</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>367</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>368</v>
+      </c>
+      <c r="J57" t="s">
+        <v>369</v>
+      </c>
+      <c r="K57" t="s">
+        <v>370</v>
+      </c>
+      <c r="L57" t="s">
+        <v>371</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>372</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>374</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>375</v>
+      </c>
+      <c r="J58" t="s">
+        <v>376</v>
+      </c>
+      <c r="K58" t="s">
+        <v>377</v>
+      </c>
+      <c r="L58" t="s">
+        <v>378</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>379</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>381</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>382</v>
+      </c>
+      <c r="J59" t="s">
+        <v>383</v>
+      </c>
+      <c r="K59" t="s">
+        <v>384</v>
+      </c>
+      <c r="L59" t="s">
+        <v>385</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>386</v>
+      </c>
+      <c r="O59" t="s">
+        <v>66</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>387</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>388</v>
+      </c>
+      <c r="J60" t="s">
+        <v>389</v>
+      </c>
+      <c r="K60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L60" t="s">
+        <v>391</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>392</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>393</v>
+      </c>
+      <c r="J61" t="s">
+        <v>394</v>
+      </c>
+      <c r="K61" t="s">
+        <v>395</v>
+      </c>
+      <c r="L61" t="s">
+        <v>396</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>397</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>399</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>400</v>
+      </c>
+      <c r="J62" t="s">
+        <v>401</v>
+      </c>
+      <c r="K62" t="s">
+        <v>402</v>
+      </c>
+      <c r="L62" t="s">
+        <v>403</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>404</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>405</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>406</v>
+      </c>
+      <c r="J63" t="s">
+        <v>407</v>
+      </c>
+      <c r="K63" t="s">
+        <v>408</v>
+      </c>
+      <c r="L63" t="s">
+        <v>409</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>404</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>411</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>412</v>
+      </c>
+      <c r="J64" t="s">
+        <v>413</v>
+      </c>
+      <c r="K64" t="s">
+        <v>414</v>
+      </c>
+      <c r="L64" t="s">
+        <v>415</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>416</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>417</v>
+      </c>
+      <c r="J65" t="s">
+        <v>418</v>
+      </c>
+      <c r="K65" t="s">
+        <v>419</v>
+      </c>
+      <c r="L65" t="s">
+        <v>420</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>421</v>
+      </c>
+      <c r="O65" t="s">
+        <v>66</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>423</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>424</v>
+      </c>
+      <c r="J66" t="s">
+        <v>425</v>
+      </c>
+      <c r="K66" t="s">
+        <v>426</v>
+      </c>
+      <c r="L66" t="s">
+        <v>427</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>428</v>
+      </c>
+      <c r="O66" t="s">
+        <v>66</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>429</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>430</v>
+      </c>
+      <c r="J67" t="s">
+        <v>431</v>
+      </c>
+      <c r="K67" t="s">
+        <v>432</v>
+      </c>
+      <c r="L67" t="s">
+        <v>433</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>434</v>
+      </c>
+      <c r="O67" t="s">
+        <v>66</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>435</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>436</v>
+      </c>
+      <c r="J68" t="s">
+        <v>437</v>
+      </c>
+      <c r="K68" t="s">
+        <v>438</v>
+      </c>
+      <c r="L68" t="s">
+        <v>439</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>440</v>
+      </c>
+      <c r="O68" t="s">
+        <v>123</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>441</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>442</v>
+      </c>
+      <c r="J69" t="s">
+        <v>443</v>
+      </c>
+      <c r="K69" t="s">
+        <v>444</v>
+      </c>
+      <c r="L69" t="s">
+        <v>445</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>440</v>
+      </c>
+      <c r="O69" t="s">
+        <v>66</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>446</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>447</v>
+      </c>
+      <c r="J70" t="s">
+        <v>448</v>
+      </c>
+      <c r="K70" t="s">
+        <v>449</v>
+      </c>
+      <c r="L70" t="s">
+        <v>450</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>451</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>452</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>453</v>
+      </c>
+      <c r="J71" t="s">
+        <v>454</v>
+      </c>
+      <c r="K71" t="s">
+        <v>455</v>
+      </c>
+      <c r="L71" t="s">
+        <v>456</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>457</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>458</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>459</v>
+      </c>
+      <c r="J72" t="s">
+        <v>460</v>
+      </c>
+      <c r="K72" t="s">
+        <v>461</v>
+      </c>
+      <c r="L72" t="s">
+        <v>462</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>457</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>463</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>464</v>
+      </c>
+      <c r="J73" t="s">
+        <v>465</v>
+      </c>
+      <c r="K73" t="s">
+        <v>466</v>
+      </c>
+      <c r="L73" t="s">
+        <v>467</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>451</v>
+      </c>
+      <c r="O73" t="s">
+        <v>66</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>468</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>469</v>
+      </c>
+      <c r="J74" t="s">
+        <v>470</v>
+      </c>
+      <c r="K74" t="s">
+        <v>471</v>
+      </c>
+      <c r="L74" t="s">
+        <v>472</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>473</v>
+      </c>
+      <c r="O74" t="s">
+        <v>66</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>474</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>475</v>
+      </c>
+      <c r="J75" t="s">
+        <v>476</v>
+      </c>
+      <c r="K75" t="s">
+        <v>477</v>
+      </c>
+      <c r="L75" t="s">
+        <v>478</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>479</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>481</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>482</v>
+      </c>
+      <c r="J76" t="s">
+        <v>483</v>
+      </c>
+      <c r="K76" t="s">
+        <v>484</v>
+      </c>
+      <c r="L76" t="s">
+        <v>485</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>486</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>487</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>488</v>
+      </c>
+      <c r="J77" t="s">
+        <v>489</v>
+      </c>
+      <c r="K77" t="s">
+        <v>490</v>
+      </c>
+      <c r="L77" t="s">
+        <v>491</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>35599</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>492</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>493</v>
+      </c>
+      <c r="J78" t="s">
+        <v>494</v>
+      </c>
+      <c r="K78" t="s">
+        <v>495</v>
+      </c>
+      <c r="L78" t="s">
+        <v>496</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>497</v>
+      </c>
+      <c r="O78" t="s">
+        <v>123</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
